--- a/S2022_Tests/ASS_01_Dim_Testing/StudentFolder/Ex.3/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_01_Dim_Testing/StudentFolder/Ex.3/ExcelExtract.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK\S2022_Tests\ASS_01_Dim_Testing\StudentFolder\Ex.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_01_Dim_Testing\StudentFolder\Ex.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A600E671-6B63-4A78-93CC-5BA0E8DE9FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96457D44-B989-4DD0-8848-704B828BE518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{D4876975-AB50-4334-844B-E26D0E362B5D}"/>
+    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{5EE6A725-420E-4E6F-9B74-DCB52A439625}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -684,7 +684,7 @@
     <t xml:space="preserve"> DSN</t>
   </si>
   <si>
-    <t>C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK\S2022_Tests\ASS_01_Dim_Testing\StudentFolder\Ex.3\Student\MecE265_Ass01_dnobes.SLDPRT</t>
+    <t>C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_01_Dim_Testing\StudentFolder\Ex.3\Student\MecE265_Ass01_dnobes.SLDPRT</t>
   </si>
   <si>
     <t>dnobes</t>
@@ -1393,7 +1393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7F6388-FA9E-487F-929B-27A93013BC12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6432837-3836-4DA0-B64B-D8584370A061}">
   <dimension ref="A1:AS125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/S2022_Tests/ASS_01_Dim_Testing/StudentFolder/Ex.3/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_01_Dim_Testing/StudentFolder/Ex.3/ExcelExtract.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_01_Dim_Testing\StudentFolder\Ex.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96457D44-B989-4DD0-8848-704B828BE518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C961EAB-999B-4911-BF4C-A851F0191474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{5EE6A725-420E-4E6F-9B74-DCB52A439625}"/>
+    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{704A7ACD-EB65-476F-8DC3-B5E8DB2E965E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1393,7 +1393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6432837-3836-4DA0-B64B-D8584370A061}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FF5573-27EB-418F-8767-60CE513E03B2}">
   <dimension ref="A1:AS125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/S2022_Tests/ASS_01_Dim_Testing/StudentFolder/Ex.3/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_01_Dim_Testing/StudentFolder/Ex.3/ExcelExtract.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_01_Dim_Testing\StudentFolder\Ex.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C961EAB-999B-4911-BF4C-A851F0191474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0A39412-03ED-4402-9F59-AE706B5629A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{704A7ACD-EB65-476F-8DC3-B5E8DB2E965E}"/>
+    <workbookView xWindow="3587" yWindow="667" windowWidth="7513" windowHeight="7800" xr2:uid="{C1921DDC-17FE-4AE2-BE85-384B8C9F7CB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1393,7 +1393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FF5573-27EB-418F-8767-60CE513E03B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA7026E-1D4B-4467-B20A-C8C0BCC1062E}">
   <dimension ref="A1:AS125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/S2022_Tests/ASS_01_Dim_Testing/StudentFolder/Ex.3/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_01_Dim_Testing/StudentFolder/Ex.3/ExcelExtract.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_01_Dim_Testing\StudentFolder\Ex.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0A39412-03ED-4402-9F59-AE706B5629A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2F0C95A-17DB-48B3-98E2-508342A6A647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3587" yWindow="667" windowWidth="7513" windowHeight="7800" xr2:uid="{C1921DDC-17FE-4AE2-BE85-384B8C9F7CB2}"/>
+    <workbookView xWindow="3587" yWindow="667" windowWidth="7513" windowHeight="7800" xr2:uid="{9D0C2E60-6583-4DBD-9F8B-E870DEFD1BCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1393,7 +1393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA7026E-1D4B-4467-B20A-C8C0BCC1062E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA84577-4E82-4400-AAE6-30CDC00039DD}">
   <dimension ref="A1:AS125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/S2022_Tests/ASS_01_Dim_Testing/StudentFolder/Ex.3/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_01_Dim_Testing/StudentFolder/Ex.3/ExcelExtract.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_01_Dim_Testing\StudentFolder\Ex.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2F0C95A-17DB-48B3-98E2-508342A6A647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38D55E7A-BC41-4B02-BC09-BB9145DBACFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3587" yWindow="667" windowWidth="7513" windowHeight="7800" xr2:uid="{9D0C2E60-6583-4DBD-9F8B-E870DEFD1BCF}"/>
+    <workbookView xWindow="13" yWindow="4847" windowWidth="24860" windowHeight="7800" xr2:uid="{52D7E7C3-1CEA-4A3C-AFD5-F1EF94B21499}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1393,7 +1393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA84577-4E82-4400-AAE6-30CDC00039DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D559863D-C223-48F2-873E-C948F516AA8D}">
   <dimension ref="A1:AS125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -6522,7 +6522,7 @@
         <v>2</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6867,7 +6867,7 @@
         <v>2</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -8003,7 +8003,7 @@
         <v>2</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8241,7 +8241,7 @@
         <v>2</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8354,7 +8354,7 @@
         <v>2</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -9947,7 +9947,7 @@
         <v>10</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117">
         <v>1</v>
